--- a/Linear_data/Amb_linear_data.xlsx
+++ b/Linear_data/Amb_linear_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utexas-my.sharepoint.com/personal/dtl474_austin_eid_utexas_edu/Documents/Ambystoma/Analysis/Ambystoma/Linear_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_6FB036433116CDFCDA5B7D3A98BD90200F9A6635" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5FA80B5F-8AE6-3A47-AA92-46201FAEC9C0}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_6FB036433116CDFCDA5B7D3A98BD90200F9A6635" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8BF10196-6DA6-A549-A232-2E3A075AA6EC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1153,45 +1153,12 @@
     <t>A.maculatum_UTEP_644</t>
   </si>
   <si>
-    <t>A.marvortium_TNHC_106097</t>
-  </si>
-  <si>
     <t>A.mavortium_TNHC_113149</t>
   </si>
   <si>
     <t>A.mavortium_TNHC_113150</t>
   </si>
   <si>
-    <t>A.marvortium_UTEP_1693</t>
-  </si>
-  <si>
-    <t>A.marvortium_UTEP_1696</t>
-  </si>
-  <si>
-    <t>A.marvortium_UTEP_1698</t>
-  </si>
-  <si>
-    <t>A.marvortium_UTEP_1699</t>
-  </si>
-  <si>
-    <t>A.marvortium_UTEP_1701</t>
-  </si>
-  <si>
-    <t>A.marvortium_UTEP_1702</t>
-  </si>
-  <si>
-    <t>A.marvortium_UTEP_1708</t>
-  </si>
-  <si>
-    <t>A.marvortium_TNHC_91548</t>
-  </si>
-  <si>
-    <t>A.marvortium_TNHC_91583</t>
-  </si>
-  <si>
-    <t>A.marvortium_TNHC_91625</t>
-  </si>
-  <si>
     <t>A.opacum_UTEP_1276</t>
   </si>
   <si>
@@ -1382,6 +1349,39 @@
   </si>
   <si>
     <t>TxVP</t>
+  </si>
+  <si>
+    <t>A.mavortium_TNHC_106097</t>
+  </si>
+  <si>
+    <t>A.mavortium_UTEP_1693</t>
+  </si>
+  <si>
+    <t>A.mavortium_UTEP_1696</t>
+  </si>
+  <si>
+    <t>A.mavortium_UTEP_1698</t>
+  </si>
+  <si>
+    <t>A.mavortium_UTEP_1699</t>
+  </si>
+  <si>
+    <t>A.mavortium_UTEP_1701</t>
+  </si>
+  <si>
+    <t>A.mavortium_UTEP_1702</t>
+  </si>
+  <si>
+    <t>A.mavortium_UTEP_1708</t>
+  </si>
+  <si>
+    <t>A.mavortium_TNHC_91548</t>
+  </si>
+  <si>
+    <t>A.mavortium_TNHC_91583</t>
+  </si>
+  <si>
+    <t>A.mavortium_TNHC_91625</t>
   </si>
 </sst>
 </file>
@@ -1735,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="AN59" workbookViewId="0">
+      <selection activeCell="BC96" sqref="BC96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2078,7 +2078,7 @@
         <v>309</v>
       </c>
       <c r="BD2" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
@@ -2248,7 +2248,7 @@
         <v>310</v>
       </c>
       <c r="BD3" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
@@ -2418,7 +2418,7 @@
         <v>311</v>
       </c>
       <c r="BD4" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
@@ -2588,7 +2588,7 @@
         <v>312</v>
       </c>
       <c r="BD5" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
@@ -2758,7 +2758,7 @@
         <v>313</v>
       </c>
       <c r="BD6" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
@@ -2928,7 +2928,7 @@
         <v>314</v>
       </c>
       <c r="BD7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
@@ -3098,7 +3098,7 @@
         <v>315</v>
       </c>
       <c r="BD8" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
@@ -3268,7 +3268,7 @@
         <v>316</v>
       </c>
       <c r="BD9" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
@@ -3438,7 +3438,7 @@
         <v>317</v>
       </c>
       <c r="BD10" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
@@ -3608,7 +3608,7 @@
         <v>318</v>
       </c>
       <c r="BD11" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
@@ -3778,7 +3778,7 @@
         <v>319</v>
       </c>
       <c r="BD12" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
@@ -3948,7 +3948,7 @@
         <v>320</v>
       </c>
       <c r="BD13" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
@@ -4118,7 +4118,7 @@
         <v>321</v>
       </c>
       <c r="BD14" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
@@ -4288,7 +4288,7 @@
         <v>322</v>
       </c>
       <c r="BD15" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
@@ -4458,7 +4458,7 @@
         <v>323</v>
       </c>
       <c r="BD16" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.2">
@@ -4628,7 +4628,7 @@
         <v>324</v>
       </c>
       <c r="BD17" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.2">
@@ -4798,7 +4798,7 @@
         <v>325</v>
       </c>
       <c r="BD18" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.2">
@@ -4968,7 +4968,7 @@
         <v>326</v>
       </c>
       <c r="BD19" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.2">
@@ -5138,7 +5138,7 @@
         <v>327</v>
       </c>
       <c r="BD20" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.2">
@@ -5308,7 +5308,7 @@
         <v>328</v>
       </c>
       <c r="BD21" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.2">
@@ -5478,7 +5478,7 @@
         <v>329</v>
       </c>
       <c r="BD22" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.2">
@@ -5648,7 +5648,7 @@
         <v>330</v>
       </c>
       <c r="BD23" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.2">
@@ -5818,7 +5818,7 @@
         <v>331</v>
       </c>
       <c r="BD24" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.2">
@@ -5988,7 +5988,7 @@
         <v>332</v>
       </c>
       <c r="BD25" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.2">
@@ -6158,7 +6158,7 @@
         <v>333</v>
       </c>
       <c r="BD26" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.2">
@@ -6328,7 +6328,7 @@
         <v>334</v>
       </c>
       <c r="BD27" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.2">
@@ -6498,7 +6498,7 @@
         <v>335</v>
       </c>
       <c r="BD28" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.2">
@@ -6668,7 +6668,7 @@
         <v>336</v>
       </c>
       <c r="BD29" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.2">
@@ -6838,18 +6838,18 @@
         <v>337</v>
       </c>
       <c r="BD30" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>85</v>
       </c>
-      <c r="B31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C31" t="e">
-        <v>#N/A</v>
+      <c r="B31">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C31">
+        <v>0.20399999999999999</v>
       </c>
       <c r="D31" t="s">
         <v>302</v>
@@ -7008,7 +7008,7 @@
         <v>338</v>
       </c>
       <c r="BD31" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.2">
@@ -7178,7 +7178,7 @@
         <v>339</v>
       </c>
       <c r="BD32" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.2">
@@ -7348,7 +7348,7 @@
         <v>340</v>
       </c>
       <c r="BD33" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.2">
@@ -7518,7 +7518,7 @@
         <v>341</v>
       </c>
       <c r="BD34" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.2">
@@ -7688,7 +7688,7 @@
         <v>342</v>
       </c>
       <c r="BD35" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.2">
@@ -7858,7 +7858,7 @@
         <v>343</v>
       </c>
       <c r="BD36" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.2">
@@ -8028,7 +8028,7 @@
         <v>344</v>
       </c>
       <c r="BD37" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.2">
@@ -8198,7 +8198,7 @@
         <v>345</v>
       </c>
       <c r="BD38" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.2">
@@ -8368,7 +8368,7 @@
         <v>346</v>
       </c>
       <c r="BD39" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.2">
@@ -8538,7 +8538,7 @@
         <v>347</v>
       </c>
       <c r="BD40" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.2">
@@ -8708,7 +8708,7 @@
         <v>348</v>
       </c>
       <c r="BD41" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.2">
@@ -8878,7 +8878,7 @@
         <v>349</v>
       </c>
       <c r="BD42" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.2">
@@ -9048,7 +9048,7 @@
         <v>350</v>
       </c>
       <c r="BD43" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" spans="1:56" x14ac:dyDescent="0.2">
@@ -9218,7 +9218,7 @@
         <v>351</v>
       </c>
       <c r="BD44" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:56" x14ac:dyDescent="0.2">
@@ -9388,7 +9388,7 @@
         <v>352</v>
       </c>
       <c r="BD45" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="1:56" x14ac:dyDescent="0.2">
@@ -9558,7 +9558,7 @@
         <v>353</v>
       </c>
       <c r="BD46" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.2">
@@ -9728,7 +9728,7 @@
         <v>354</v>
       </c>
       <c r="BD47" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.2">
@@ -9898,7 +9898,7 @@
         <v>355</v>
       </c>
       <c r="BD48" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:56" x14ac:dyDescent="0.2">
@@ -10068,7 +10068,7 @@
         <v>356</v>
       </c>
       <c r="BD49" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.2">
@@ -10238,7 +10238,7 @@
         <v>357</v>
       </c>
       <c r="BD50" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.2">
@@ -10408,7 +10408,7 @@
         <v>358</v>
       </c>
       <c r="BD51" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:56" x14ac:dyDescent="0.2">
@@ -10578,7 +10578,7 @@
         <v>359</v>
       </c>
       <c r="BD52" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.2">
@@ -10748,7 +10748,7 @@
         <v>360</v>
       </c>
       <c r="BD53" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.2">
@@ -10918,7 +10918,7 @@
         <v>361</v>
       </c>
       <c r="BD54" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.2">
@@ -11088,7 +11088,7 @@
         <v>362</v>
       </c>
       <c r="BD55" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.2">
@@ -11258,7 +11258,7 @@
         <v>363</v>
       </c>
       <c r="BD56" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.2">
@@ -11428,7 +11428,7 @@
         <v>364</v>
       </c>
       <c r="BD57" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:56" x14ac:dyDescent="0.2">
@@ -11598,7 +11598,7 @@
         <v>365</v>
       </c>
       <c r="BD58" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.2">
@@ -11768,7 +11768,7 @@
         <v>366</v>
       </c>
       <c r="BD59" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.2">
@@ -11938,7 +11938,7 @@
         <v>367</v>
       </c>
       <c r="BD60" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:56" x14ac:dyDescent="0.2">
@@ -12108,7 +12108,7 @@
         <v>368</v>
       </c>
       <c r="BD61" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.2">
@@ -12278,7 +12278,7 @@
         <v>369</v>
       </c>
       <c r="BD62" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63" spans="1:56" x14ac:dyDescent="0.2">
@@ -12448,7 +12448,7 @@
         <v>370</v>
       </c>
       <c r="BD63" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="1:56" x14ac:dyDescent="0.2">
@@ -12618,7 +12618,7 @@
         <v>371</v>
       </c>
       <c r="BD64" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:56" x14ac:dyDescent="0.2">
@@ -12788,7 +12788,7 @@
         <v>372</v>
       </c>
       <c r="BD65" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="1:56" x14ac:dyDescent="0.2">
@@ -12958,7 +12958,7 @@
         <v>373</v>
       </c>
       <c r="BD66" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:56" x14ac:dyDescent="0.2">
@@ -13128,7 +13128,7 @@
         <v>374</v>
       </c>
       <c r="BD67" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="1:56" x14ac:dyDescent="0.2">
@@ -13298,7 +13298,7 @@
         <v>375</v>
       </c>
       <c r="BD68" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:56" x14ac:dyDescent="0.2">
@@ -13468,7 +13468,7 @@
         <v>376</v>
       </c>
       <c r="BD69" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:56" x14ac:dyDescent="0.2">
@@ -13635,10 +13635,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC70" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="BD70" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:56" x14ac:dyDescent="0.2">
@@ -13805,10 +13805,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC71" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BD71" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:56" x14ac:dyDescent="0.2">
@@ -13975,10 +13975,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BD72" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73" spans="1:56" x14ac:dyDescent="0.2">
@@ -14145,10 +14145,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC73" t="s">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="BD73" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="1:56" x14ac:dyDescent="0.2">
@@ -14315,10 +14315,10 @@
         <v>307</v>
       </c>
       <c r="BC74" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="BD74" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:56" x14ac:dyDescent="0.2">
@@ -14485,10 +14485,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC75" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="BD75" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="1:56" x14ac:dyDescent="0.2">
@@ -14655,10 +14655,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC76" t="s">
-        <v>383</v>
+        <v>447</v>
       </c>
       <c r="BD76" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="1:56" x14ac:dyDescent="0.2">
@@ -14825,10 +14825,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC77" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="BD77" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" spans="1:56" x14ac:dyDescent="0.2">
@@ -14995,10 +14995,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC78" t="s">
-        <v>385</v>
+        <v>449</v>
       </c>
       <c r="BD78" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="1:56" x14ac:dyDescent="0.2">
@@ -15165,10 +15165,10 @@
         <v>307</v>
       </c>
       <c r="BC79" t="s">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="BD79" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:56" x14ac:dyDescent="0.2">
@@ -15335,10 +15335,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC80" t="s">
-        <v>387</v>
+        <v>451</v>
       </c>
       <c r="BD80" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:56" x14ac:dyDescent="0.2">
@@ -15505,10 +15505,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC81" t="s">
-        <v>388</v>
+        <v>452</v>
       </c>
       <c r="BD81" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:56" x14ac:dyDescent="0.2">
@@ -15675,10 +15675,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC82" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="BD82" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:56" x14ac:dyDescent="0.2">
@@ -15845,10 +15845,10 @@
         <v>308</v>
       </c>
       <c r="BC83" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="BD83" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="1:56" x14ac:dyDescent="0.2">
@@ -16015,10 +16015,10 @@
         <v>308</v>
       </c>
       <c r="BC84" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="BD84" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:56" x14ac:dyDescent="0.2">
@@ -16185,10 +16185,10 @@
         <v>308</v>
       </c>
       <c r="BC85" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="BD85" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="1:56" x14ac:dyDescent="0.2">
@@ -16355,10 +16355,10 @@
         <v>308</v>
       </c>
       <c r="BC86" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="BD86" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:56" x14ac:dyDescent="0.2">
@@ -16525,10 +16525,10 @@
         <v>308</v>
       </c>
       <c r="BC87" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="BD87" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88" spans="1:56" x14ac:dyDescent="0.2">
@@ -16695,10 +16695,10 @@
         <v>308</v>
       </c>
       <c r="BC88" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="BD88" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="89" spans="1:56" x14ac:dyDescent="0.2">
@@ -16865,10 +16865,10 @@
         <v>308</v>
       </c>
       <c r="BC89" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="BD89" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="90" spans="1:56" x14ac:dyDescent="0.2">
@@ -17035,10 +17035,10 @@
         <v>307</v>
       </c>
       <c r="BC90" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="BD90" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91" spans="1:56" x14ac:dyDescent="0.2">
@@ -17205,10 +17205,10 @@
         <v>307</v>
       </c>
       <c r="BC91" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="BD91" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="92" spans="1:56" x14ac:dyDescent="0.2">
@@ -17375,10 +17375,10 @@
         <v>307</v>
       </c>
       <c r="BC92" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="BD92" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="93" spans="1:56" x14ac:dyDescent="0.2">
@@ -17545,10 +17545,10 @@
         <v>307</v>
       </c>
       <c r="BC93" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="BD93" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="94" spans="1:56" x14ac:dyDescent="0.2">
@@ -17715,10 +17715,10 @@
         <v>307</v>
       </c>
       <c r="BC94" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="BD94" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95" spans="1:56" x14ac:dyDescent="0.2">
@@ -17885,10 +17885,10 @@
         <v>308</v>
       </c>
       <c r="BC95" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="BD95" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="96" spans="1:56" x14ac:dyDescent="0.2">
@@ -18055,10 +18055,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC96" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="BD96" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="97" spans="1:56" x14ac:dyDescent="0.2">
@@ -18225,10 +18225,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC97" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="BD97" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="98" spans="1:56" x14ac:dyDescent="0.2">
@@ -18395,10 +18395,10 @@
         <v>308</v>
       </c>
       <c r="BC98" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="BD98" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99" spans="1:56" x14ac:dyDescent="0.2">
@@ -18565,10 +18565,10 @@
         <v>307</v>
       </c>
       <c r="BC99" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="BD99" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100" spans="1:56" x14ac:dyDescent="0.2">
@@ -18735,21 +18735,21 @@
         <v>308</v>
       </c>
       <c r="BC100" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="BD100" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>155</v>
       </c>
-      <c r="B101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C101" t="e">
-        <v>#N/A</v>
+      <c r="B101">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="C101">
+        <v>0.501</v>
       </c>
       <c r="D101" t="s">
         <v>302</v>
@@ -18905,21 +18905,21 @@
         <v>#N/A</v>
       </c>
       <c r="BC101" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="BD101" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>156</v>
       </c>
-      <c r="B102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C102" t="e">
-        <v>#N/A</v>
+      <c r="B102">
+        <v>1.385</v>
+      </c>
+      <c r="C102">
+        <v>0.33900000000000002</v>
       </c>
       <c r="D102" t="s">
         <v>302</v>
@@ -19075,10 +19075,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC102" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="BD102" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:56" x14ac:dyDescent="0.2">
@@ -19245,10 +19245,10 @@
         <v>308</v>
       </c>
       <c r="BC103" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="BD103" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:56" x14ac:dyDescent="0.2">
@@ -19415,10 +19415,10 @@
         <v>308</v>
       </c>
       <c r="BC104" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="BD104" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105" spans="1:56" x14ac:dyDescent="0.2">
@@ -19585,10 +19585,10 @@
         <v>308</v>
       </c>
       <c r="BC105" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="BD105" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="106" spans="1:56" x14ac:dyDescent="0.2">
@@ -19755,10 +19755,10 @@
         <v>308</v>
       </c>
       <c r="BC106" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="BD106" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="1:56" x14ac:dyDescent="0.2">
@@ -19925,10 +19925,10 @@
         <v>307</v>
       </c>
       <c r="BC107" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="BD107" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="108" spans="1:56" x14ac:dyDescent="0.2">
@@ -20095,10 +20095,10 @@
         <v>308</v>
       </c>
       <c r="BC108" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="BD108" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="109" spans="1:56" x14ac:dyDescent="0.2">
@@ -20265,10 +20265,10 @@
         <v>307</v>
       </c>
       <c r="BC109" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="BD109" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="110" spans="1:56" x14ac:dyDescent="0.2">
@@ -20435,10 +20435,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC110" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="BD110" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="111" spans="1:56" x14ac:dyDescent="0.2">
@@ -20605,10 +20605,10 @@
         <v>308</v>
       </c>
       <c r="BC111" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="BD111" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" spans="1:56" x14ac:dyDescent="0.2">
@@ -20775,10 +20775,10 @@
         <v>308</v>
       </c>
       <c r="BC112" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="BD112" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="1:56" x14ac:dyDescent="0.2">
@@ -20945,10 +20945,10 @@
         <v>308</v>
       </c>
       <c r="BC113" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="BD113" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:56" x14ac:dyDescent="0.2">
@@ -21115,10 +21115,10 @@
         <v>307</v>
       </c>
       <c r="BC114" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="BD114" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115" spans="1:56" x14ac:dyDescent="0.2">
@@ -21285,10 +21285,10 @@
         <v>307</v>
       </c>
       <c r="BC115" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="BD115" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="116" spans="1:56" x14ac:dyDescent="0.2">
@@ -21455,10 +21455,10 @@
         <v>308</v>
       </c>
       <c r="BC116" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="BD116" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="117" spans="1:56" x14ac:dyDescent="0.2">
@@ -21625,10 +21625,10 @@
         <v>308</v>
       </c>
       <c r="BC117" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="BD117" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="118" spans="1:56" x14ac:dyDescent="0.2">
@@ -21795,10 +21795,10 @@
         <v>308</v>
       </c>
       <c r="BC118" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="BD118" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="119" spans="1:56" x14ac:dyDescent="0.2">
@@ -21965,10 +21965,10 @@
         <v>308</v>
       </c>
       <c r="BC119" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="BD119" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="120" spans="1:56" x14ac:dyDescent="0.2">
@@ -22135,10 +22135,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC120" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="BD120" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="121" spans="1:56" x14ac:dyDescent="0.2">
@@ -22305,10 +22305,10 @@
         <v>307</v>
       </c>
       <c r="BC121" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="BD121" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="122" spans="1:56" x14ac:dyDescent="0.2">
@@ -22475,10 +22475,10 @@
         <v>307</v>
       </c>
       <c r="BC122" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="BD122" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="123" spans="1:56" x14ac:dyDescent="0.2">
@@ -22645,10 +22645,10 @@
         <v>307</v>
       </c>
       <c r="BC123" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="BD123" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="124" spans="1:56" x14ac:dyDescent="0.2">
@@ -22815,10 +22815,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC124" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="BD124" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="125" spans="1:56" x14ac:dyDescent="0.2">
@@ -22985,10 +22985,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC125" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="BD125" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="126" spans="1:56" x14ac:dyDescent="0.2">
@@ -23155,10 +23155,10 @@
         <v>307</v>
       </c>
       <c r="BC126" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="BD126" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="127" spans="1:56" x14ac:dyDescent="0.2">
@@ -23325,10 +23325,10 @@
         <v>307</v>
       </c>
       <c r="BC127" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="BD127" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="128" spans="1:56" x14ac:dyDescent="0.2">
@@ -23495,10 +23495,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC128" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="BD128" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="129" spans="1:56" x14ac:dyDescent="0.2">
@@ -23665,10 +23665,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC129" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="BD129" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="130" spans="1:56" x14ac:dyDescent="0.2">
@@ -23835,10 +23835,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC130" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="BD130" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="131" spans="1:56" x14ac:dyDescent="0.2">
@@ -24005,10 +24005,10 @@
         <v>#N/A</v>
       </c>
       <c r="BC131" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="BD131" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="1:56" x14ac:dyDescent="0.2">
@@ -24178,7 +24178,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD132" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="133" spans="1:56" x14ac:dyDescent="0.2">
@@ -24348,7 +24348,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD133" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="134" spans="1:56" x14ac:dyDescent="0.2">
@@ -24518,7 +24518,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD134" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="135" spans="1:56" x14ac:dyDescent="0.2">
@@ -24688,7 +24688,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD135" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="136" spans="1:56" x14ac:dyDescent="0.2">
@@ -24858,7 +24858,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD136" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="137" spans="1:56" x14ac:dyDescent="0.2">
@@ -25028,7 +25028,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD137" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:56" x14ac:dyDescent="0.2">
@@ -25198,7 +25198,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD138" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="139" spans="1:56" x14ac:dyDescent="0.2">
@@ -25368,7 +25368,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD139" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:56" x14ac:dyDescent="0.2">
@@ -25538,7 +25538,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD140" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" spans="1:56" x14ac:dyDescent="0.2">
@@ -25708,7 +25708,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD141" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="142" spans="1:56" x14ac:dyDescent="0.2">
@@ -25878,7 +25878,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD142" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="1:56" x14ac:dyDescent="0.2">
@@ -26048,7 +26048,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD143" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="144" spans="1:56" x14ac:dyDescent="0.2">
@@ -26218,7 +26218,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD144" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="145" spans="1:56" x14ac:dyDescent="0.2">
@@ -26388,7 +26388,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD145" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="146" spans="1:56" x14ac:dyDescent="0.2">
@@ -26558,7 +26558,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD146" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="1:56" x14ac:dyDescent="0.2">
@@ -26728,7 +26728,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD147" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="148" spans="1:56" x14ac:dyDescent="0.2">
@@ -26898,7 +26898,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD148" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:56" x14ac:dyDescent="0.2">
@@ -27068,7 +27068,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD149" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="150" spans="1:56" x14ac:dyDescent="0.2">
@@ -27238,7 +27238,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD150" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="151" spans="1:56" x14ac:dyDescent="0.2">
@@ -27408,7 +27408,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD151" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="1:56" x14ac:dyDescent="0.2">
@@ -27578,7 +27578,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD152" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="153" spans="1:56" x14ac:dyDescent="0.2">
@@ -27748,7 +27748,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD153" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="154" spans="1:56" x14ac:dyDescent="0.2">
@@ -27918,7 +27918,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD154" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="155" spans="1:56" x14ac:dyDescent="0.2">
@@ -28088,7 +28088,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD155" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="156" spans="1:56" x14ac:dyDescent="0.2">
@@ -28258,7 +28258,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD156" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="157" spans="1:56" x14ac:dyDescent="0.2">
@@ -28428,7 +28428,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD157" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="158" spans="1:56" x14ac:dyDescent="0.2">
@@ -28598,7 +28598,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD158" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="159" spans="1:56" x14ac:dyDescent="0.2">
@@ -28768,7 +28768,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD159" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:56" x14ac:dyDescent="0.2">
@@ -28938,7 +28938,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD160" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="1:56" x14ac:dyDescent="0.2">
@@ -29108,7 +29108,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD161" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="162" spans="1:56" x14ac:dyDescent="0.2">
@@ -29278,7 +29278,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD162" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="1:56" x14ac:dyDescent="0.2">
@@ -29448,7 +29448,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD163" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="164" spans="1:56" x14ac:dyDescent="0.2">
@@ -29618,7 +29618,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD164" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="1:56" x14ac:dyDescent="0.2">
@@ -29788,7 +29788,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD165" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="166" spans="1:56" x14ac:dyDescent="0.2">
@@ -29958,7 +29958,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD166" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="1:56" x14ac:dyDescent="0.2">
@@ -30128,7 +30128,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD167" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="1:56" x14ac:dyDescent="0.2">
@@ -30298,7 +30298,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD168" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="1:56" x14ac:dyDescent="0.2">
@@ -30468,7 +30468,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD169" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170" spans="1:56" x14ac:dyDescent="0.2">
@@ -30638,7 +30638,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD170" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="171" spans="1:56" x14ac:dyDescent="0.2">
@@ -30808,7 +30808,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD171" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="1:56" x14ac:dyDescent="0.2">
@@ -30978,7 +30978,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD172" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" spans="1:56" x14ac:dyDescent="0.2">
@@ -31148,7 +31148,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD173" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="174" spans="1:56" x14ac:dyDescent="0.2">
@@ -31318,7 +31318,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD174" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="175" spans="1:56" x14ac:dyDescent="0.2">
@@ -31488,7 +31488,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD175" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="176" spans="1:56" x14ac:dyDescent="0.2">
@@ -31658,7 +31658,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD176" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="177" spans="1:56" x14ac:dyDescent="0.2">
@@ -31828,7 +31828,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD177" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="178" spans="1:56" x14ac:dyDescent="0.2">
@@ -31998,7 +31998,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD178" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="179" spans="1:56" x14ac:dyDescent="0.2">
@@ -32168,7 +32168,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD179" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="180" spans="1:56" x14ac:dyDescent="0.2">
@@ -32338,7 +32338,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD180" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="181" spans="1:56" x14ac:dyDescent="0.2">
@@ -32508,7 +32508,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD181" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="182" spans="1:56" x14ac:dyDescent="0.2">
@@ -32678,7 +32678,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD182" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="183" spans="1:56" x14ac:dyDescent="0.2">
@@ -32848,7 +32848,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD183" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="184" spans="1:56" x14ac:dyDescent="0.2">
@@ -33018,7 +33018,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD184" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="185" spans="1:56" x14ac:dyDescent="0.2">
@@ -33188,7 +33188,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD185" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="186" spans="1:56" x14ac:dyDescent="0.2">
@@ -33358,7 +33358,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD186" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="187" spans="1:56" x14ac:dyDescent="0.2">
@@ -33528,7 +33528,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD187" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="188" spans="1:56" x14ac:dyDescent="0.2">
@@ -33698,7 +33698,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD188" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="189" spans="1:56" x14ac:dyDescent="0.2">
@@ -33868,7 +33868,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD189" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="190" spans="1:56" x14ac:dyDescent="0.2">
@@ -34038,7 +34038,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD190" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="191" spans="1:56" x14ac:dyDescent="0.2">
@@ -34208,7 +34208,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD191" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="192" spans="1:56" x14ac:dyDescent="0.2">
@@ -34378,7 +34378,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD192" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="193" spans="1:56" x14ac:dyDescent="0.2">
@@ -34548,7 +34548,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD193" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="194" spans="1:56" x14ac:dyDescent="0.2">
@@ -34718,7 +34718,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD194" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="195" spans="1:56" x14ac:dyDescent="0.2">
@@ -34888,7 +34888,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD195" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="196" spans="1:56" x14ac:dyDescent="0.2">
@@ -35058,7 +35058,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD196" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="197" spans="1:56" x14ac:dyDescent="0.2">
@@ -35228,7 +35228,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD197" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="198" spans="1:56" x14ac:dyDescent="0.2">
@@ -35398,7 +35398,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD198" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="199" spans="1:56" x14ac:dyDescent="0.2">
@@ -35568,7 +35568,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD199" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="200" spans="1:56" x14ac:dyDescent="0.2">
@@ -35738,7 +35738,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD200" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="201" spans="1:56" x14ac:dyDescent="0.2">
@@ -35908,7 +35908,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD201" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="202" spans="1:56" x14ac:dyDescent="0.2">
@@ -36078,7 +36078,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD202" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="203" spans="1:56" x14ac:dyDescent="0.2">
@@ -36248,7 +36248,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD203" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="204" spans="1:56" x14ac:dyDescent="0.2">
@@ -36418,7 +36418,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD204" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="205" spans="1:56" x14ac:dyDescent="0.2">
@@ -36588,7 +36588,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD205" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="206" spans="1:56" x14ac:dyDescent="0.2">
@@ -36758,7 +36758,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD206" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="207" spans="1:56" x14ac:dyDescent="0.2">
@@ -36928,7 +36928,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD207" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="208" spans="1:56" x14ac:dyDescent="0.2">
@@ -37098,7 +37098,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD208" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="209" spans="1:56" x14ac:dyDescent="0.2">
@@ -37268,7 +37268,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD209" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="210" spans="1:56" x14ac:dyDescent="0.2">
@@ -37438,7 +37438,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD210" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="211" spans="1:56" x14ac:dyDescent="0.2">
@@ -37608,7 +37608,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD211" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="1:56" x14ac:dyDescent="0.2">
@@ -37778,7 +37778,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD212" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="213" spans="1:56" x14ac:dyDescent="0.2">
@@ -37948,7 +37948,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD213" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="214" spans="1:56" x14ac:dyDescent="0.2">
@@ -38118,7 +38118,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD214" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="215" spans="1:56" x14ac:dyDescent="0.2">
@@ -38288,7 +38288,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD215" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="216" spans="1:56" x14ac:dyDescent="0.2">
@@ -38458,7 +38458,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD216" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="217" spans="1:56" x14ac:dyDescent="0.2">
@@ -38628,7 +38628,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD217" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="218" spans="1:56" x14ac:dyDescent="0.2">
@@ -38798,7 +38798,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD218" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="219" spans="1:56" x14ac:dyDescent="0.2">
@@ -38968,7 +38968,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD219" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="220" spans="1:56" x14ac:dyDescent="0.2">
@@ -39138,7 +39138,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD220" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="221" spans="1:56" x14ac:dyDescent="0.2">
@@ -39308,7 +39308,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD221" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="222" spans="1:56" x14ac:dyDescent="0.2">
@@ -39478,7 +39478,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD222" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="223" spans="1:56" x14ac:dyDescent="0.2">
@@ -39648,7 +39648,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD223" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="224" spans="1:56" x14ac:dyDescent="0.2">
@@ -39818,7 +39818,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD224" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="225" spans="1:56" x14ac:dyDescent="0.2">
@@ -39988,7 +39988,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD225" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="226" spans="1:56" x14ac:dyDescent="0.2">
@@ -40158,7 +40158,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD226" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="227" spans="1:56" x14ac:dyDescent="0.2">
@@ -40328,7 +40328,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD227" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="228" spans="1:56" x14ac:dyDescent="0.2">
@@ -40498,7 +40498,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD228" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="229" spans="1:56" x14ac:dyDescent="0.2">
@@ -40668,7 +40668,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD229" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="230" spans="1:56" x14ac:dyDescent="0.2">
@@ -40838,7 +40838,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD230" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="231" spans="1:56" x14ac:dyDescent="0.2">
@@ -41008,7 +41008,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD231" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="232" spans="1:56" x14ac:dyDescent="0.2">
@@ -41178,7 +41178,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD232" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="233" spans="1:56" x14ac:dyDescent="0.2">
@@ -41348,7 +41348,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD233" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="234" spans="1:56" x14ac:dyDescent="0.2">
@@ -41518,7 +41518,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD234" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="235" spans="1:56" x14ac:dyDescent="0.2">
@@ -41688,7 +41688,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD235" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="236" spans="1:56" x14ac:dyDescent="0.2">
@@ -41858,7 +41858,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD236" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="237" spans="1:56" x14ac:dyDescent="0.2">
@@ -42028,7 +42028,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD237" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="238" spans="1:56" x14ac:dyDescent="0.2">
@@ -42198,7 +42198,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD238" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="239" spans="1:56" x14ac:dyDescent="0.2">
@@ -42368,7 +42368,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD239" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="240" spans="1:56" x14ac:dyDescent="0.2">
@@ -42538,7 +42538,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD240" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="241" spans="1:56" x14ac:dyDescent="0.2">
@@ -42708,7 +42708,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD241" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="242" spans="1:56" x14ac:dyDescent="0.2">
@@ -42878,7 +42878,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD242" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="243" spans="1:56" x14ac:dyDescent="0.2">
@@ -43048,7 +43048,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD243" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="244" spans="1:56" x14ac:dyDescent="0.2">
@@ -43218,7 +43218,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD244" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="245" spans="1:56" x14ac:dyDescent="0.2">
@@ -43388,7 +43388,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD245" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="246" spans="1:56" x14ac:dyDescent="0.2">
@@ -43558,7 +43558,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD246" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="247" spans="1:56" x14ac:dyDescent="0.2">
@@ -43728,7 +43728,7 @@
         <v>#N/A</v>
       </c>
       <c r="BD247" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
